--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T14:15:42+00:00</t>
+    <t>2026-02-06T14:21:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T14:21:59+00:00</t>
+    <t>2026-02-06T14:23:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T14:23:42+00:00</t>
+    <t>2026-02-06T15:35:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T15:35:13+00:00</t>
+    <t>2026-02-09T08:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T08:07:21+00:00</t>
+    <t>2026-02-09T08:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T08:54:30+00:00</t>
+    <t>2026-02-09T14:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T14:29:20+00:00</t>
+    <t>2026-02-09T14:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/concertation/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T14:34:32+00:00</t>
+    <t>2026-02-09T15:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
